--- a/src/results/two_evaporators_cop.xlsx
+++ b/src/results/two_evaporators_cop.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositories\projeto-final\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pflpe\Desktop\Projeto\projeto-final\src\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD962DB7-D397-4BA5-B64B-457E1AF2267D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A5A38A-41F7-4701-92DB-56123AB0B5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$85</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="38">
   <si>
     <t>refrigerant</t>
   </si>
@@ -73,6 +76,12 @@
     <t>default_exergy_efficiency</t>
   </si>
   <si>
+    <t>exergy_efficiency_components</t>
+  </si>
+  <si>
+    <t>default_exergy_efficiency_components</t>
+  </si>
+  <si>
     <t>R600a</t>
   </si>
   <si>
@@ -115,13 +124,16 @@
     <t>R134a</t>
   </si>
   <si>
+    <t>R1234yf</t>
+  </si>
+  <si>
+    <t>R1234ze(E)</t>
+  </si>
+  <si>
     <t>R22</t>
   </si>
   <si>
     <t>R290</t>
-  </si>
-  <si>
-    <t>R1234yf</t>
   </si>
   <si>
     <t>NH3</t>
@@ -487,32 +499,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="S1" sqref="A1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,16 +580,22 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>63.119006866191931</v>
@@ -585,10 +607,10 @@
         <v>31.539305350898779</v>
       </c>
       <c r="G2">
-        <v>120.5230522628005</v>
+        <v>81.393066547907992</v>
       </c>
       <c r="H2">
-        <v>46.799691732867572</v>
+        <v>28.858260790023898</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -606,27 +628,33 @@
         <v>0.52731413878894562</v>
       </c>
       <c r="N2">
-        <v>2.650909009870531</v>
+        <v>1.746721515622977</v>
       </c>
       <c r="O2">
         <v>2.376463246926396</v>
       </c>
       <c r="P2">
-        <v>0.31843273842452802</v>
+        <v>0.2467244885413645</v>
       </c>
       <c r="Q2">
+        <v>0.33075270708081328</v>
+      </c>
+      <c r="R2">
+        <v>0.25193807211662522</v>
+      </c>
+      <c r="S2">
         <v>0.33344889430993901</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>64.665862616714421</v>
@@ -638,10 +666,10 @@
         <v>32.312238232319856</v>
       </c>
       <c r="G3">
-        <v>120.75693619061479</v>
+        <v>81.879833639529011</v>
       </c>
       <c r="H3">
-        <v>46.852211337985892</v>
+        <v>28.983111178302249</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -659,27 +687,33 @@
         <v>0.5275830241467051</v>
       </c>
       <c r="N3">
-        <v>2.5919262613420728</v>
+        <v>1.714396751728726</v>
       </c>
       <c r="O3">
         <v>2.3196164704254469</v>
       </c>
       <c r="P3">
-        <v>0.32093427880090558</v>
+        <v>0.24853567533527179</v>
       </c>
       <c r="Q3">
+        <v>0.33158637009253639</v>
+      </c>
+      <c r="R3">
+        <v>0.25371237785922318</v>
+      </c>
+      <c r="S3">
         <v>0.33425281048796512</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>63.119006866191931</v>
@@ -691,10 +725,10 @@
         <v>31.539305350898779</v>
       </c>
       <c r="G4">
-        <v>120.5230522628005</v>
+        <v>81.393066547907992</v>
       </c>
       <c r="H4">
-        <v>46.799691732867572</v>
+        <v>28.858260790023898</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -712,27 +746,33 @@
         <v>0.52731413878894562</v>
       </c>
       <c r="N4">
-        <v>2.650909009870531</v>
+        <v>1.746721515622977</v>
       </c>
       <c r="O4">
         <v>2.376463246926396</v>
       </c>
       <c r="P4">
-        <v>0.31843273842452802</v>
+        <v>0.2467244885413645</v>
       </c>
       <c r="Q4">
+        <v>0.33075270708081328</v>
+      </c>
+      <c r="R4">
+        <v>0.25193807211662522</v>
+      </c>
+      <c r="S4">
         <v>0.33344889430993901</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>61.597626071034377</v>
@@ -744,10 +784,10 @@
         <v>30.779101795174459</v>
       </c>
       <c r="G5">
-        <v>120.29446366641039</v>
+        <v>80.901804845816059</v>
       </c>
       <c r="H5">
-        <v>46.748391907659197</v>
+        <v>28.730393949547981</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -765,27 +805,33 @@
         <v>0.52705117781629784</v>
       </c>
       <c r="N5">
-        <v>2.711839176747425</v>
+        <v>1.779812076993619</v>
       </c>
       <c r="O5">
         <v>2.435158780746193</v>
       </c>
       <c r="P5">
-        <v>0.31572103149483338</v>
+        <v>0.24477555141939389</v>
       </c>
       <c r="Q5">
+        <v>0.329740728986681</v>
+      </c>
+      <c r="R5">
+        <v>0.25002715217008742</v>
+      </c>
+      <c r="S5">
         <v>0.33246780924467562</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>58.627766543165038</v>
@@ -797,10 +843,10 @@
         <v>29.29512238628871</v>
       </c>
       <c r="G6">
-        <v>119.852434911904</v>
+        <v>79.903820973137201</v>
       </c>
       <c r="H6">
-        <v>46.649274320867022</v>
+        <v>28.465029549555769</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -818,27 +864,33 @@
         <v>0.52654225079150785</v>
       </c>
       <c r="N6">
-        <v>2.839980423101792</v>
+        <v>1.8484219494001319</v>
       </c>
       <c r="O6">
         <v>2.5585146568659001</v>
       </c>
       <c r="P6">
-        <v>0.30962841206877201</v>
+        <v>0.240447035643647</v>
       </c>
       <c r="Q6">
+        <v>0.32715170176102859</v>
+      </c>
+      <c r="R6">
+        <v>0.2457782665456785</v>
+      </c>
+      <c r="S6">
         <v>0.32994425994388171</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>57.177622351802718</v>
@@ -850,10 +902,10 @@
         <v>28.570514336748779</v>
       </c>
       <c r="G7">
-        <v>119.63864672481481</v>
+        <v>79.396076840419568</v>
       </c>
       <c r="H7">
-        <v>46.601373001407261</v>
+        <v>28.327223854302471</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -871,27 +923,33 @@
         <v>0.52629591682888943</v>
       </c>
       <c r="N7">
-        <v>2.9074314896023452</v>
+        <v>1.8840115461940981</v>
       </c>
       <c r="O7">
         <v>2.6234039442402719</v>
       </c>
       <c r="P7">
-        <v>0.30622626158145227</v>
+        <v>0.23805811104078481</v>
       </c>
       <c r="Q7">
+        <v>0.32555808661960378</v>
+      </c>
+      <c r="R7">
+        <v>0.24343105525220679</v>
+      </c>
+      <c r="S7">
         <v>0.32838536828251119</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>55.749618015602373</v>
@@ -903,10 +961,10 @@
         <v>27.85696913003618</v>
       </c>
       <c r="G8">
-        <v>119.4294568831063</v>
+        <v>78.88179061709269</v>
       </c>
       <c r="H8">
-        <v>46.554524115220453</v>
+        <v>28.185784285748841</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -924,27 +982,33 @@
         <v>0.52605477051130933</v>
       </c>
       <c r="N8">
-        <v>2.9773115387422671</v>
+        <v>1.9205077759075779</v>
       </c>
       <c r="O8">
         <v>2.6906013949372758</v>
       </c>
       <c r="P8">
-        <v>0.30257132417549348</v>
+        <v>0.23551270739498889</v>
       </c>
       <c r="Q8">
+        <v>0.32375291002938011</v>
+      </c>
+      <c r="R8">
+        <v>0.2409287020851395</v>
+      </c>
+      <c r="S8">
         <v>0.32661633945572632</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>57.177622351802718</v>
@@ -956,10 +1020,10 @@
         <v>28.570514336748779</v>
       </c>
       <c r="G9">
-        <v>119.63864672481481</v>
+        <v>79.396076840419568</v>
       </c>
       <c r="H9">
-        <v>46.601373001407261</v>
+        <v>28.327223854302471</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -977,27 +1041,33 @@
         <v>0.52629591682888943</v>
       </c>
       <c r="N9">
-        <v>2.9074314896023452</v>
+        <v>1.8840115461940981</v>
       </c>
       <c r="O9">
         <v>2.6234039442402719</v>
       </c>
       <c r="P9">
-        <v>0.30622626158145227</v>
+        <v>0.23805811104078481</v>
       </c>
       <c r="Q9">
+        <v>0.32555808661960378</v>
+      </c>
+      <c r="R9">
+        <v>0.24343105525220679</v>
+      </c>
+      <c r="S9">
         <v>0.32838536828251119</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>57.177622351802718</v>
@@ -1009,10 +1079,10 @@
         <v>28.570514336748779</v>
       </c>
       <c r="G10">
-        <v>119.63864672481481</v>
+        <v>79.396076840419568</v>
       </c>
       <c r="H10">
-        <v>46.601373001407261</v>
+        <v>28.327223854302471</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1030,27 +1100,33 @@
         <v>0.52629591682888943</v>
       </c>
       <c r="N10">
-        <v>2.9074314896023452</v>
+        <v>1.8840115461940981</v>
       </c>
       <c r="O10">
         <v>2.6234039442402719</v>
       </c>
       <c r="P10">
-        <v>0.30622626158145227</v>
+        <v>0.23805811104078481</v>
       </c>
       <c r="Q10">
+        <v>0.32555808661960378</v>
+      </c>
+      <c r="R10">
+        <v>0.24343105525220679</v>
+      </c>
+      <c r="S10">
         <v>0.32838536828251119</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>58.627766543165038</v>
@@ -1062,10 +1138,10 @@
         <v>29.29512238628871</v>
       </c>
       <c r="G11">
-        <v>119.852434911904</v>
+        <v>79.903820973137201</v>
       </c>
       <c r="H11">
-        <v>46.649274320867022</v>
+        <v>28.465029549555769</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1083,27 +1159,33 @@
         <v>0.52654225079150785</v>
       </c>
       <c r="N11">
-        <v>2.839980423101792</v>
+        <v>1.8484219494001319</v>
       </c>
       <c r="O11">
         <v>2.5585146568659001</v>
       </c>
       <c r="P11">
-        <v>0.30962841206877201</v>
+        <v>0.240447035643647</v>
       </c>
       <c r="Q11">
+        <v>0.32715170176102859</v>
+      </c>
+      <c r="R11">
+        <v>0.2457782665456785</v>
+      </c>
+      <c r="S11">
         <v>0.32994425994388171</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>60.100829719721062</v>
@@ -1115,10 +1197,10 @@
         <v>30.03118259435022</v>
       </c>
       <c r="G12">
-        <v>120.0709838895248</v>
+        <v>80.405557565130536</v>
       </c>
       <c r="H12">
-        <v>46.698267023366242</v>
+        <v>28.5993670063209</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1136,27 +1218,33 @@
         <v>0.52679394450185568</v>
       </c>
       <c r="N12">
-        <v>2.7748244357127172</v>
+        <v>1.8137008270899679</v>
       </c>
       <c r="O12">
         <v>2.4958058099949998</v>
       </c>
       <c r="P12">
-        <v>0.31278966321416202</v>
+        <v>0.24268457963519999</v>
       </c>
       <c r="Q12">
+        <v>0.32854304927006828</v>
+      </c>
+      <c r="R12">
+        <v>0.24797537989866661</v>
+      </c>
+      <c r="S12">
         <v>0.3313022309216761</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>61.597626071034377</v>
@@ -1168,10 +1256,10 @@
         <v>30.779101795174459</v>
       </c>
       <c r="G13">
-        <v>120.29446366641039</v>
+        <v>80.901804845816059</v>
       </c>
       <c r="H13">
-        <v>46.748391907659197</v>
+        <v>28.730393949547981</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -1189,27 +1277,33 @@
         <v>0.52705117781629784</v>
       </c>
       <c r="N13">
-        <v>2.711839176747425</v>
+        <v>1.779812076993619</v>
       </c>
       <c r="O13">
         <v>2.435158780746193</v>
       </c>
       <c r="P13">
-        <v>0.31572103149483338</v>
+        <v>0.24477555141939389</v>
       </c>
       <c r="Q13">
+        <v>0.329740728986681</v>
+      </c>
+      <c r="R13">
+        <v>0.25002715217008742</v>
+      </c>
+      <c r="S13">
         <v>0.33246780924467562</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>64.724782378651085</v>
@@ -1221,10 +1315,10 @@
         <v>32.341679258964383</v>
       </c>
       <c r="G14">
-        <v>119.09770756302539</v>
+        <v>79.357454265618927</v>
       </c>
       <c r="H14">
-        <v>47.059196943358167</v>
+        <v>29.022635051750921</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1242,27 +1336,33 @@
         <v>0.52218691731641531</v>
       </c>
       <c r="N14">
-        <v>2.567129597042709</v>
+        <v>1.6744759168648531</v>
       </c>
       <c r="O14">
         <v>2.3175048951493462</v>
       </c>
       <c r="P14">
-        <v>0.3086568479034878</v>
+        <v>0.23833840357821701</v>
       </c>
       <c r="Q14">
+        <v>0.32254696921362619</v>
+      </c>
+      <c r="R14">
+        <v>0.24224070216725979</v>
+      </c>
+      <c r="S14">
         <v>0.32439092129317432</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>66.34411565765437</v>
@@ -1274,10 +1374,10 @@
         <v>33.150827711816731</v>
       </c>
       <c r="G15">
-        <v>119.3315638366812</v>
+        <v>79.830922434443082</v>
       </c>
       <c r="H15">
-        <v>47.118576134208688</v>
+        <v>29.15426835239186</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1295,27 +1395,33 @@
         <v>0.52241587472695994</v>
       </c>
       <c r="N15">
-        <v>2.5088907783441972</v>
+        <v>1.64272580479051</v>
       </c>
       <c r="O15">
         <v>2.2609390224450738</v>
       </c>
       <c r="P15">
-        <v>0.31093645122149971</v>
+        <v>0.239947122094713</v>
       </c>
       <c r="Q15">
+        <v>0.32319849984322008</v>
+      </c>
+      <c r="R15">
+        <v>0.24382136133791771</v>
+      </c>
+      <c r="S15">
         <v>0.32502204247390881</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>64.724782378651085</v>
@@ -1327,10 +1433,10 @@
         <v>32.341679258964383</v>
       </c>
       <c r="G16">
-        <v>119.09770756302539</v>
+        <v>79.357454265618927</v>
       </c>
       <c r="H16">
-        <v>47.059196943358167</v>
+        <v>29.022635051750921</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -1348,27 +1454,33 @@
         <v>0.52218691731641531</v>
       </c>
       <c r="N16">
-        <v>2.567129597042709</v>
+        <v>1.6744759168648531</v>
       </c>
       <c r="O16">
         <v>2.3175048951493462</v>
       </c>
       <c r="P16">
-        <v>0.3086568479034878</v>
+        <v>0.23833840357821701</v>
       </c>
       <c r="Q16">
+        <v>0.32254696921362619</v>
+      </c>
+      <c r="R16">
+        <v>0.24224070216725979</v>
+      </c>
+      <c r="S16">
         <v>0.32439092129317432</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>63.13406811729368</v>
@@ -1380,10 +1492,10 @@
         <v>31.546831156849301</v>
       </c>
       <c r="G17">
-        <v>118.86987864609701</v>
+        <v>78.880116016900772</v>
       </c>
       <c r="H17">
-        <v>47.001452336369759</v>
+        <v>28.888319507877341</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1401,27 +1513,33 @@
         <v>0.52196329201349023</v>
       </c>
       <c r="N17">
-        <v>2.627287230632795</v>
+        <v>1.706977527957813</v>
       </c>
       <c r="O17">
         <v>2.3758963183129969</v>
       </c>
       <c r="P17">
-        <v>0.3061693961605243</v>
+        <v>0.23659473252195881</v>
       </c>
       <c r="Q17">
+        <v>0.32171609925051242</v>
+      </c>
+      <c r="R17">
+        <v>0.2405259449910753</v>
+      </c>
+      <c r="S17">
         <v>0.32358124552138801</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>60.034251644971157</v>
@@ -1433,10 +1551,10 @@
         <v>29.997914861959192</v>
       </c>
       <c r="G18">
-        <v>118.4313378978096</v>
+        <v>77.911715848074778</v>
       </c>
       <c r="H18">
-        <v>46.890590340649418</v>
+        <v>28.61098702735692</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1454,27 +1572,33 @@
         <v>0.52153127154602363</v>
       </c>
       <c r="N18">
-        <v>2.7537934380549141</v>
+        <v>1.774365465657548</v>
       </c>
       <c r="O18">
         <v>2.4985736623663719</v>
       </c>
       <c r="P18">
-        <v>0.30053309099124509</v>
+        <v>0.23268571722641179</v>
       </c>
       <c r="Q18">
+        <v>0.31948717722795822</v>
+      </c>
+      <c r="R18">
+        <v>0.2366774631753987</v>
+      </c>
+      <c r="S18">
         <v>0.32139724003223069</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>58.523155796617061</v>
@@ -1486,10 +1610,10 @@
         <v>29.242850488453609</v>
       </c>
       <c r="G19">
-        <v>118.2201750071318</v>
+        <v>77.419572354330313</v>
       </c>
       <c r="H19">
-        <v>46.837343966766753</v>
+        <v>28.467628073037162</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1507,27 +1631,33 @@
         <v>0.52132251659021178</v>
       </c>
       <c r="N19">
-        <v>2.8203796724072041</v>
+        <v>1.8093214384294749</v>
       </c>
       <c r="O19">
         <v>2.5630880282889801</v>
       </c>
       <c r="P19">
-        <v>0.29736343844529978</v>
+        <v>0.23051131885248119</v>
       </c>
       <c r="Q19">
+        <v>0.31807302728174491</v>
+      </c>
+      <c r="R19">
+        <v>0.23453476045591251</v>
+      </c>
+      <c r="S19">
         <v>0.32000690757774441</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>57.03668538769243</v>
@@ -1539,10 +1669,10 @@
         <v>28.50009095452215</v>
       </c>
       <c r="G20">
-        <v>118.01413572205171</v>
+        <v>76.921391611257917</v>
       </c>
       <c r="H20">
-        <v>46.785473713120822</v>
+        <v>28.320901522320391</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1560,27 +1690,33 @@
         <v>0.52111837301911124</v>
       </c>
       <c r="N20">
-        <v>2.8893616155109449</v>
+        <v>1.84516846338844</v>
       </c>
       <c r="O20">
         <v>2.6298863438576938</v>
       </c>
       <c r="P20">
-        <v>0.29394419683138029</v>
+        <v>0.22818382368143639</v>
       </c>
       <c r="Q20">
+        <v>0.3164472294084662</v>
+      </c>
+      <c r="R20">
+        <v>0.23223996786900131</v>
+      </c>
+      <c r="S20">
         <v>0.31840590286922471</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>58.523155796617061</v>
@@ -1592,10 +1728,10 @@
         <v>29.242850488453609</v>
       </c>
       <c r="G21">
-        <v>118.2201750071318</v>
+        <v>77.419572354330313</v>
       </c>
       <c r="H21">
-        <v>46.837343966766753</v>
+        <v>28.467628073037162</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -1613,27 +1749,33 @@
         <v>0.52132251659021178</v>
       </c>
       <c r="N21">
-        <v>2.8203796724072041</v>
+        <v>1.8093214384294749</v>
       </c>
       <c r="O21">
         <v>2.5630880282889801</v>
       </c>
       <c r="P21">
-        <v>0.29736343844529978</v>
+        <v>0.23051131885248119</v>
       </c>
       <c r="Q21">
+        <v>0.31807302728174491</v>
+      </c>
+      <c r="R21">
+        <v>0.23453476045591251</v>
+      </c>
+      <c r="S21">
         <v>0.32000690757774441</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>58.523155796617061</v>
@@ -1645,10 +1787,10 @@
         <v>29.242850488453609</v>
       </c>
       <c r="G22">
-        <v>118.2201750071318</v>
+        <v>77.419572354330313</v>
       </c>
       <c r="H22">
-        <v>46.837343966766753</v>
+        <v>28.467628073037162</v>
       </c>
       <c r="I22">
         <v>10</v>
@@ -1666,27 +1808,33 @@
         <v>0.52132251659021178</v>
       </c>
       <c r="N22">
-        <v>2.8203796724072041</v>
+        <v>1.8093214384294749</v>
       </c>
       <c r="O22">
         <v>2.5630880282889801</v>
       </c>
       <c r="P22">
-        <v>0.29736343844529978</v>
+        <v>0.23051131885248119</v>
       </c>
       <c r="Q22">
+        <v>0.31807302728174491</v>
+      </c>
+      <c r="R22">
+        <v>0.23453476045591251</v>
+      </c>
+      <c r="S22">
         <v>0.32000690757774441</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>60.034251644971157</v>
@@ -1698,10 +1846,10 @@
         <v>29.997914861959192</v>
       </c>
       <c r="G23">
-        <v>118.4313378978096</v>
+        <v>77.911715848074778</v>
       </c>
       <c r="H23">
-        <v>46.890590340649418</v>
+        <v>28.61098702735692</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -1719,27 +1867,33 @@
         <v>0.52153127154602363</v>
       </c>
       <c r="N23">
-        <v>2.7537934380549141</v>
+        <v>1.774365465657548</v>
       </c>
       <c r="O23">
         <v>2.4985736623663719</v>
       </c>
       <c r="P23">
-        <v>0.30053309099124509</v>
+        <v>0.23268571722641179</v>
       </c>
       <c r="Q23">
+        <v>0.31948717722795822</v>
+      </c>
+      <c r="R23">
+        <v>0.2366774631753987</v>
+      </c>
+      <c r="S23">
         <v>0.32139724003223069</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>61.570898409151177</v>
@@ -1751,10 +1905,10 @@
         <v>30.765746517084661</v>
       </c>
       <c r="G24">
-        <v>118.6478326114965</v>
+        <v>78.398381618230601</v>
       </c>
       <c r="H24">
-        <v>46.945272226070607</v>
+        <v>28.751159459439581</v>
       </c>
       <c r="I24">
         <v>10</v>
@@ -1772,27 +1926,33 @@
         <v>0.52174480488274688</v>
       </c>
       <c r="N24">
-        <v>2.6894703360858432</v>
+        <v>1.7402627514972999</v>
       </c>
       <c r="O24">
         <v>2.4362158726874412</v>
       </c>
       <c r="P24">
-        <v>0.30346481225178412</v>
+        <v>0.23471196794584259</v>
       </c>
       <c r="Q24">
+        <v>0.32069874518581859</v>
+      </c>
+      <c r="R24">
+        <v>0.23867298387262889</v>
+      </c>
+      <c r="S24">
         <v>0.32258591308236878</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>63.13406811729368</v>
@@ -1804,10 +1964,10 @@
         <v>31.546831156849301</v>
       </c>
       <c r="G25">
-        <v>118.86987864609701</v>
+        <v>78.880116016900772</v>
       </c>
       <c r="H25">
-        <v>47.001452336369759</v>
+        <v>28.888319507877341</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -1825,678 +1985,756 @@
         <v>0.52196329201349023</v>
       </c>
       <c r="N25">
-        <v>2.627287230632795</v>
+        <v>1.706977527957813</v>
       </c>
       <c r="O25">
         <v>2.3758963183129969</v>
       </c>
       <c r="P25">
-        <v>0.3061693961605243</v>
+        <v>0.23659473252195881</v>
       </c>
       <c r="Q25">
+        <v>0.32171609925051242</v>
+      </c>
+      <c r="R25">
+        <v>0.2405259449910753</v>
+      </c>
+      <c r="S25">
         <v>0.32358124552138801</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>63.888243018283802</v>
+        <v>68.570527268831</v>
       </c>
       <c r="E26">
-        <v>45.999534973164337</v>
+        <v>49.370779633558321</v>
       </c>
       <c r="F26">
-        <v>31.92367727137605</v>
+        <v>34.263321065689468</v>
       </c>
       <c r="G26">
-        <v>50.453771533682371</v>
+        <v>84.519307430648865</v>
       </c>
       <c r="H26">
-        <v>111.99670587608939</v>
+        <v>29.07377482610654</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M26">
-        <v>0.51347246539093006</v>
+        <v>0.53205676622873577</v>
       </c>
       <c r="N26">
-        <v>2.5427288298299429</v>
+        <v>1.656587557091596</v>
       </c>
       <c r="O26">
-        <v>2.3478498220255082</v>
+        <v>2.187528752869647</v>
       </c>
       <c r="P26">
-        <v>0.39807550198506308</v>
+        <v>0.23226327905818481</v>
       </c>
       <c r="Q26">
-        <v>0.32771464537327261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30445707829251373</v>
+      </c>
+      <c r="R26">
+        <v>0.23762432191196009</v>
+      </c>
+      <c r="S26">
+        <v>0.30707401556350661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>65.414191245523043</v>
+        <v>70.462746617623168</v>
       </c>
       <c r="E27">
-        <v>47.098217696776587</v>
+        <v>50.733177564688681</v>
       </c>
       <c r="F27">
-        <v>32.686163081562952</v>
+        <v>35.208825229893939</v>
       </c>
       <c r="G27">
-        <v>50.509024125002021</v>
+        <v>85.120101805526019</v>
       </c>
       <c r="H27">
-        <v>112.0781469938814</v>
+        <v>29.207963075614671</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M27">
-        <v>0.51358398306536812</v>
+        <v>0.53248551770066987</v>
       </c>
       <c r="N27">
-        <v>2.485503038761653</v>
+        <v>1.6225320523135349</v>
       </c>
       <c r="O27">
-        <v>2.2930804026452898</v>
+        <v>2.128784459879173</v>
       </c>
       <c r="P27">
-        <v>0.39861865330577551</v>
+        <v>0.23347318377599571</v>
       </c>
       <c r="Q27">
-        <v>0.32872607153999112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30430716489578519</v>
+      </c>
+      <c r="R27">
+        <v>0.23879780340288881</v>
+      </c>
+      <c r="S27">
+        <v>0.30689648650116802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>63.888243018283802</v>
+        <v>68.570527268831</v>
       </c>
       <c r="E28">
-        <v>45.999534973164337</v>
+        <v>49.370779633558321</v>
       </c>
       <c r="F28">
-        <v>31.92367727137605</v>
+        <v>34.263321065689468</v>
       </c>
       <c r="G28">
-        <v>50.453771533682371</v>
+        <v>84.519307430648865</v>
       </c>
       <c r="H28">
-        <v>111.99670587608939</v>
+        <v>29.07377482610654</v>
       </c>
       <c r="I28">
         <v>10</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M28">
-        <v>0.51347246539093006</v>
+        <v>0.53205676622873577</v>
       </c>
       <c r="N28">
-        <v>2.5427288298299429</v>
+        <v>1.656587557091596</v>
       </c>
       <c r="O28">
-        <v>2.3478498220255082</v>
+        <v>2.187528752869647</v>
       </c>
       <c r="P28">
-        <v>0.39807550198506308</v>
+        <v>0.23226327905818481</v>
       </c>
       <c r="Q28">
-        <v>0.32771464537327261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30445707829251373</v>
+      </c>
+      <c r="R28">
+        <v>0.23762432191196009</v>
+      </c>
+      <c r="S28">
+        <v>0.30707401556350661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>62.384762842299097</v>
+        <v>66.723085809212307</v>
       </c>
       <c r="E29">
-        <v>44.917029246455357</v>
+        <v>48.040621782632861</v>
       </c>
       <c r="F29">
-        <v>31.172418297040011</v>
+        <v>33.340191517147197</v>
       </c>
       <c r="G29">
-        <v>50.399914254847523</v>
+        <v>83.919207281138895</v>
       </c>
       <c r="H29">
-        <v>111.9175690269544</v>
+        <v>28.93718371687023</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M29">
-        <v>0.5133631778653317</v>
+        <v>0.53164060959584714</v>
       </c>
       <c r="N29">
-        <v>2.6018770591806248</v>
+        <v>1.6914144426819551</v>
       </c>
       <c r="O29">
-        <v>2.4044332809147848</v>
+        <v>2.2480974640308049</v>
       </c>
       <c r="P29">
-        <v>0.39738812074090668</v>
+        <v>0.2309030872943886</v>
       </c>
       <c r="Q29">
-        <v>0.32653628928737721</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30441107269213757</v>
+      </c>
+      <c r="R29">
+        <v>0.23630170024468489</v>
+      </c>
+      <c r="S29">
+        <v>0.30705671214913499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>59.442271628607038</v>
+        <v>63.154436558463011</v>
       </c>
       <c r="E30">
-        <v>42.798435572597057</v>
+        <v>45.471194322093368</v>
       </c>
       <c r="F30">
-        <v>29.702114287382361</v>
+        <v>31.55700885953279</v>
       </c>
       <c r="G30">
-        <v>50.296166526600288</v>
+        <v>82.717858888522414</v>
       </c>
       <c r="H30">
-        <v>111.7658197722923</v>
+        <v>28.65603401637447</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L30">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M30">
-        <v>0.51315100538703506</v>
+        <v>0.53084387124872967</v>
       </c>
       <c r="N30">
-        <v>2.7263760596406801</v>
+        <v>1.763516531444254</v>
       </c>
       <c r="O30">
-        <v>2.5234567234777652</v>
+        <v>2.3751300490368989</v>
       </c>
       <c r="P30">
-        <v>0.3955555682029136</v>
+        <v>0.2277145525348942</v>
       </c>
       <c r="Q30">
-        <v>0.32364979831693519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30370271100889912</v>
+      </c>
+      <c r="R30">
+        <v>0.2331919350855888</v>
+      </c>
+      <c r="S30">
+        <v>0.30640925482616688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>58.001875554335442</v>
+        <v>61.429479151733332</v>
       </c>
       <c r="E31">
-        <v>41.761350399121518</v>
+        <v>44.229224989248003</v>
       </c>
       <c r="F31">
-        <v>28.98237717699033</v>
+        <v>30.695082142538109</v>
       </c>
       <c r="G31">
-        <v>50.246174013910817</v>
+        <v>82.115018418366603</v>
       </c>
       <c r="H31">
-        <v>111.69302716806369</v>
+        <v>28.511087659511041</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L31">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M31">
-        <v>0.51304798467728085</v>
+        <v>0.53046226682753017</v>
       </c>
       <c r="N31">
-        <v>2.7919649086221678</v>
+        <v>1.8008634877829031</v>
       </c>
       <c r="O31">
-        <v>2.58612326871192</v>
+        <v>2.4418243825491972</v>
       </c>
       <c r="P31">
-        <v>0.3943965753402694</v>
+        <v>0.2258768937956763</v>
       </c>
       <c r="Q31">
-        <v>0.32192566964963731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30302450203642889</v>
+      </c>
+      <c r="R31">
+        <v>0.23139557689850679</v>
+      </c>
+      <c r="S31">
+        <v>0.30576337948295929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>56.581173663985822</v>
+        <v>59.741782206948571</v>
       </c>
       <c r="E32">
-        <v>40.738445038069777</v>
+        <v>43.014083189002967</v>
       </c>
       <c r="F32">
-        <v>28.27248085642043</v>
+        <v>29.851773733168059</v>
       </c>
       <c r="G32">
-        <v>50.197372283392603</v>
+        <v>81.509680090072692</v>
       </c>
       <c r="H32">
-        <v>111.6221776587754</v>
+        <v>28.362961056754688</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M32">
-        <v>0.51294692221474292</v>
+        <v>0.53009120687357958</v>
       </c>
       <c r="N32">
-        <v>2.8599539292548628</v>
+        <v>1.839125601680629</v>
       </c>
       <c r="O32">
-        <v>2.6510584755769342</v>
+        <v>2.5108055779185219</v>
       </c>
       <c r="P32">
-        <v>0.39306561310590821</v>
+        <v>0.2238702795965872</v>
       </c>
       <c r="Q32">
-        <v>0.3200025122659077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30211855754578287</v>
+      </c>
+      <c r="R32">
+        <v>0.22943161259799841</v>
+      </c>
+      <c r="S32">
+        <v>0.30489111892611392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>58.001875554335442</v>
+        <v>61.429479151733332</v>
       </c>
       <c r="E33">
-        <v>41.761350399121518</v>
+        <v>44.229224989248003</v>
       </c>
       <c r="F33">
-        <v>28.98237717699033</v>
+        <v>30.695082142538109</v>
       </c>
       <c r="G33">
-        <v>50.246174013910817</v>
+        <v>82.115018418366603</v>
       </c>
       <c r="H33">
-        <v>111.69302716806369</v>
+        <v>28.511087659511041</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L33">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M33">
-        <v>0.51304798467728085</v>
+        <v>0.53046226682753017</v>
       </c>
       <c r="N33">
-        <v>2.7919649086221678</v>
+        <v>1.8008634877829031</v>
       </c>
       <c r="O33">
-        <v>2.58612326871192</v>
+        <v>2.4418243825491972</v>
       </c>
       <c r="P33">
-        <v>0.3943965753402694</v>
+        <v>0.2258768937956763</v>
       </c>
       <c r="Q33">
-        <v>0.32192566964963731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30302450203642889</v>
+      </c>
+      <c r="R33">
+        <v>0.23139557689850679</v>
+      </c>
+      <c r="S33">
+        <v>0.30576337948295929</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>58.001875554335442</v>
+        <v>61.429479151733332</v>
       </c>
       <c r="E34">
-        <v>41.761350399121518</v>
+        <v>44.229224989248003</v>
       </c>
       <c r="F34">
-        <v>28.98237717699033</v>
+        <v>30.695082142538109</v>
       </c>
       <c r="G34">
-        <v>50.246174013910817</v>
+        <v>82.115018418366603</v>
       </c>
       <c r="H34">
-        <v>111.69302716806369</v>
+        <v>28.511087659511041</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M34">
-        <v>0.51304798467728085</v>
+        <v>0.53046226682753017</v>
       </c>
       <c r="N34">
-        <v>2.7919649086221678</v>
+        <v>1.8008634877829031</v>
       </c>
       <c r="O34">
-        <v>2.58612326871192</v>
+        <v>2.4418243825491972</v>
       </c>
       <c r="P34">
-        <v>0.3943965753402694</v>
+        <v>0.2258768937956763</v>
       </c>
       <c r="Q34">
-        <v>0.32192566964963731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30302450203642889</v>
+      </c>
+      <c r="R34">
+        <v>0.23139557689850679</v>
+      </c>
+      <c r="S34">
+        <v>0.30576337948295929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>59.442271628607038</v>
+        <v>63.154436558463011</v>
       </c>
       <c r="E35">
-        <v>42.798435572597057</v>
+        <v>45.471194322093368</v>
       </c>
       <c r="F35">
-        <v>29.702114287382361</v>
+        <v>31.55700885953279</v>
       </c>
       <c r="G35">
-        <v>50.296166526600288</v>
+        <v>82.717858888522414</v>
       </c>
       <c r="H35">
-        <v>111.7658197722923</v>
+        <v>28.65603401637447</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M35">
-        <v>0.51315100538703506</v>
+        <v>0.53084387124872967</v>
       </c>
       <c r="N35">
-        <v>2.7263760596406801</v>
+        <v>1.763516531444254</v>
       </c>
       <c r="O35">
-        <v>2.5234567234777652</v>
+        <v>2.3751300490368989</v>
       </c>
       <c r="P35">
-        <v>0.3955555682029136</v>
+        <v>0.2277145525348942</v>
       </c>
       <c r="Q35">
-        <v>0.32364979831693519</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30370271100889912</v>
+      </c>
+      <c r="R35">
+        <v>0.2331919350855888</v>
+      </c>
+      <c r="S35">
+        <v>0.30640925482616688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>60.903008519827928</v>
+        <v>64.918366246852145</v>
       </c>
       <c r="E36">
-        <v>43.850166134276108</v>
+        <v>46.741223697733538</v>
       </c>
       <c r="F36">
-        <v>30.432015297187611</v>
+        <v>32.438409246227067</v>
       </c>
       <c r="G36">
-        <v>50.347396741392451</v>
+        <v>83.318990961943371</v>
       </c>
       <c r="H36">
-        <v>111.84063791718761</v>
+        <v>28.798000761330201</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L36">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M36">
-        <v>0.51325604768208211</v>
+        <v>0.53123648693348835</v>
       </c>
       <c r="N36">
-        <v>2.6630545616769861</v>
+        <v>1.727045799288119</v>
       </c>
       <c r="O36">
-        <v>2.4629325159062572</v>
+        <v>2.3105941919367599</v>
       </c>
       <c r="P36">
-        <v>0.39655035709514957</v>
+        <v>0.22938835126404611</v>
       </c>
       <c r="Q36">
-        <v>0.32518390069663528</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30416215011781439</v>
+      </c>
+      <c r="R36">
+        <v>0.2348257277334396</v>
+      </c>
+      <c r="S36">
+        <v>0.30683763730518587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>62.384762842299097</v>
+        <v>66.723085809212307</v>
       </c>
       <c r="E37">
-        <v>44.917029246455357</v>
+        <v>48.040621782632861</v>
       </c>
       <c r="F37">
-        <v>31.172418297040011</v>
+        <v>33.340191517147197</v>
       </c>
       <c r="G37">
-        <v>50.399914254847523</v>
+        <v>83.919207281138895</v>
       </c>
       <c r="H37">
-        <v>111.9175690269544</v>
+        <v>28.93718371687023</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M37">
-        <v>0.5133631778653317</v>
+        <v>0.53164060959584714</v>
       </c>
       <c r="N37">
-        <v>2.6018770591806248</v>
+        <v>1.6914144426819551</v>
       </c>
       <c r="O37">
-        <v>2.4044332809147848</v>
+        <v>2.2480974640308049</v>
       </c>
       <c r="P37">
-        <v>0.39738812074090668</v>
+        <v>0.2309030872943886</v>
       </c>
       <c r="Q37">
-        <v>0.32653628928737721</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.30441107269213757</v>
+      </c>
+      <c r="R37">
+        <v>0.23630170024468489</v>
+      </c>
+      <c r="S37">
+        <v>0.30705671214913499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>65.417649009978234</v>
+        <v>65.319804929048559</v>
       </c>
       <c r="E38">
-        <v>47.100707287184328</v>
+        <v>47.030259548914962</v>
       </c>
       <c r="F38">
-        <v>32.687890857305931</v>
+        <v>32.639000126946982</v>
       </c>
       <c r="G38">
-        <v>119.4188407022428</v>
+        <v>81.872026846996008</v>
       </c>
       <c r="H38">
-        <v>47.181613456933277</v>
+        <v>28.79157116919248</v>
       </c>
       <c r="I38">
         <v>10</v>
@@ -2511,45 +2749,51 @@
         <v>0.3</v>
       </c>
       <c r="M38">
-        <v>0.52219352782079764</v>
+        <v>0.52854418540590031</v>
       </c>
       <c r="N38">
-        <v>2.546720291549522</v>
+        <v>1.694181391637545</v>
       </c>
       <c r="O38">
-        <v>2.2929591978629551</v>
+        <v>2.2963938756849078</v>
       </c>
       <c r="P38">
-        <v>0.3061446329919425</v>
+        <v>0.23882221954174729</v>
       </c>
       <c r="Q38">
-        <v>0.32089401057272721</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31960876815113159</v>
+      </c>
+      <c r="R38">
+        <v>0.24398451781826019</v>
+      </c>
+      <c r="S38">
+        <v>0.32222953780250829</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>67.078556952777859</v>
+        <v>66.990771344403072</v>
       </c>
       <c r="E39">
-        <v>48.296561006000061</v>
+        <v>48.233355367970212</v>
       </c>
       <c r="F39">
-        <v>33.517813338164054</v>
+        <v>33.473948625371328</v>
       </c>
       <c r="G39">
-        <v>119.67472060686011</v>
+        <v>82.384002577175778</v>
       </c>
       <c r="H39">
-        <v>47.249326341937604</v>
+        <v>28.916021671960301</v>
       </c>
       <c r="I39">
         <v>10</v>
@@ -2564,45 +2808,51 @@
         <v>0.3</v>
       </c>
       <c r="M39">
-        <v>0.52242760720006809</v>
+        <v>0.52886191116729364</v>
       </c>
       <c r="N39">
-        <v>2.4884859563438329</v>
+        <v>1.661423238089569</v>
       </c>
       <c r="O39">
-        <v>2.236184062599877</v>
+        <v>2.239114388291517</v>
       </c>
       <c r="P39">
-        <v>0.30834980686732699</v>
+        <v>0.24036738585242329</v>
       </c>
       <c r="Q39">
-        <v>0.32140333230003237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32007869477637302</v>
+      </c>
+      <c r="R39">
+        <v>0.2454937495996278</v>
+      </c>
+      <c r="S39">
+        <v>0.32267113562321342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>65.417649009978234</v>
+        <v>65.319804929048559</v>
       </c>
       <c r="E40">
-        <v>47.100707287184328</v>
+        <v>47.030259548914962</v>
       </c>
       <c r="F40">
-        <v>32.687890857305931</v>
+        <v>32.639000126946982</v>
       </c>
       <c r="G40">
-        <v>119.4188407022428</v>
+        <v>81.872026846996008</v>
       </c>
       <c r="H40">
-        <v>47.181613456933277</v>
+        <v>28.79157116919248</v>
       </c>
       <c r="I40">
         <v>10</v>
@@ -2617,45 +2867,51 @@
         <v>0.3</v>
       </c>
       <c r="M40">
-        <v>0.52219352782079764</v>
+        <v>0.52854418540590031</v>
       </c>
       <c r="N40">
-        <v>2.546720291549522</v>
+        <v>1.694181391637545</v>
       </c>
       <c r="O40">
-        <v>2.2929591978629551</v>
+        <v>2.2963938756849078</v>
       </c>
       <c r="P40">
-        <v>0.3061446329919425</v>
+        <v>0.23882221954174729</v>
       </c>
       <c r="Q40">
-        <v>0.32089401057272721</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31960876815113159</v>
+      </c>
+      <c r="R40">
+        <v>0.24398451781826019</v>
+      </c>
+      <c r="S40">
+        <v>0.32222953780250829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41">
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>63.787840732247993</v>
+        <v>63.680393745258478</v>
       </c>
       <c r="E41">
-        <v>45.92724532721855</v>
+        <v>45.849883496586102</v>
       </c>
       <c r="F41">
-        <v>31.873508257089679</v>
+        <v>31.819819146630749</v>
       </c>
       <c r="G41">
-        <v>119.16996704243761</v>
+        <v>81.356941244615911</v>
       </c>
       <c r="H41">
-        <v>47.115867699615677</v>
+        <v>28.664268841652209</v>
       </c>
       <c r="I41">
         <v>10</v>
@@ -2670,45 +2926,51 @@
         <v>0.3</v>
       </c>
       <c r="M41">
-        <v>0.52196523933676098</v>
+        <v>0.52823418393276567</v>
       </c>
       <c r="N41">
-        <v>2.6068578718637729</v>
+        <v>1.7277093248887161</v>
       </c>
       <c r="O41">
-        <v>2.351545345916803</v>
+        <v>2.3555130736164571</v>
       </c>
       <c r="P41">
-        <v>0.30372978986510951</v>
+        <v>0.23713658874467411</v>
       </c>
       <c r="Q41">
-        <v>0.32020255991575147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31895603858486199</v>
+      </c>
+      <c r="R41">
+        <v>0.2423359334282634</v>
+      </c>
+      <c r="S41">
+        <v>0.3216062366606578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>60.616656149042228</v>
+        <v>60.491424296583183</v>
       </c>
       <c r="E42">
-        <v>43.643992427310401</v>
+        <v>43.553825493539897</v>
       </c>
       <c r="F42">
-        <v>30.288930744553419</v>
+        <v>30.226354892516682</v>
       </c>
       <c r="G42">
-        <v>118.69205806099301</v>
+        <v>80.315158334501433</v>
       </c>
       <c r="H42">
-        <v>46.9899295195438</v>
+        <v>28.400483292112138</v>
       </c>
       <c r="I42">
         <v>10</v>
@@ -2723,45 +2985,51 @@
         <v>0.3</v>
       </c>
       <c r="M42">
-        <v>0.52152515692786794</v>
+        <v>0.52763621526758342</v>
       </c>
       <c r="N42">
-        <v>2.7332749462979842</v>
+        <v>1.79720750322545</v>
       </c>
       <c r="O42">
-        <v>2.474567380146885</v>
+        <v>2.4796903320471602</v>
       </c>
       <c r="P42">
-        <v>0.29823367213557822</v>
+        <v>0.23332658292389419</v>
       </c>
       <c r="Q42">
-        <v>0.31824478662720979</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31707260687079108</v>
+      </c>
+      <c r="R42">
+        <v>0.23860353961368971</v>
+      </c>
+      <c r="S42">
+        <v>0.31978520366492208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>59.073001990560023</v>
+        <v>58.939607772334973</v>
       </c>
       <c r="E43">
-        <v>42.532561433203213</v>
+        <v>42.436517596081167</v>
       </c>
       <c r="F43">
-        <v>29.517597634643032</v>
+        <v>29.450943211680329</v>
       </c>
       <c r="G43">
-        <v>118.4624734194721</v>
+        <v>79.787298227213739</v>
       </c>
       <c r="H43">
-        <v>46.929575505113263</v>
+        <v>28.263671583839969</v>
       </c>
       <c r="I43">
         <v>10</v>
@@ -2776,45 +3044,51 @@
         <v>0.3</v>
       </c>
       <c r="M43">
-        <v>0.52131295209185735</v>
+        <v>0.52734771369118516</v>
       </c>
       <c r="N43">
-        <v>2.7997908240894098</v>
+        <v>1.833248877875475</v>
       </c>
       <c r="O43">
-        <v>2.539231035253132</v>
+        <v>2.5449779133142938</v>
       </c>
       <c r="P43">
-        <v>0.2951318234086634</v>
+        <v>0.23119287133565269</v>
       </c>
       <c r="Q43">
-        <v>0.31696271150964378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31582560579998481</v>
+      </c>
+      <c r="R43">
+        <v>0.23651049187373671</v>
+      </c>
+      <c r="S43">
+        <v>0.31857130582661292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>57.555883754216318</v>
+        <v>57.414822657575577</v>
       </c>
       <c r="E44">
-        <v>41.440236303035753</v>
+        <v>41.338672313454417</v>
       </c>
       <c r="F44">
-        <v>28.759523994306811</v>
+        <v>28.689038585537361</v>
       </c>
       <c r="G44">
-        <v>118.238794121193</v>
+        <v>79.253998347944659</v>
       </c>
       <c r="H44">
-        <v>46.870864730574567</v>
+        <v>28.123349807276831</v>
       </c>
       <c r="I44">
         <v>10</v>
@@ -2829,45 +3103,51 @@
         <v>0.3</v>
       </c>
       <c r="M44">
-        <v>0.52110571487161983</v>
+        <v>0.52706586592669769</v>
       </c>
       <c r="N44">
-        <v>2.8686842783414348</v>
+        <v>1.8702025571971981</v>
       </c>
       <c r="O44">
-        <v>2.6061627450731581</v>
+        <v>2.612565763628782</v>
       </c>
       <c r="P44">
-        <v>0.29177901560962272</v>
+        <v>0.22889998501592521</v>
       </c>
       <c r="Q44">
-        <v>0.31546689122119281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31436309005469232</v>
+      </c>
+      <c r="R44">
+        <v>0.23425957814845169</v>
+      </c>
+      <c r="S44">
+        <v>0.31714325969352197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D45">
-        <v>59.073001990560023</v>
+        <v>58.939607772334973</v>
       </c>
       <c r="E45">
-        <v>42.532561433203213</v>
+        <v>42.436517596081167</v>
       </c>
       <c r="F45">
-        <v>29.517597634643032</v>
+        <v>29.450943211680329</v>
       </c>
       <c r="G45">
-        <v>118.4624734194721</v>
+        <v>79.787298227213739</v>
       </c>
       <c r="H45">
-        <v>46.929575505113263</v>
+        <v>28.263671583839969</v>
       </c>
       <c r="I45">
         <v>10</v>
@@ -2882,45 +3162,51 @@
         <v>0.3</v>
       </c>
       <c r="M45">
-        <v>0.52131295209185735</v>
+        <v>0.52734771369118516</v>
       </c>
       <c r="N45">
-        <v>2.7997908240894098</v>
+        <v>1.833248877875475</v>
       </c>
       <c r="O45">
-        <v>2.539231035253132</v>
+        <v>2.5449779133142938</v>
       </c>
       <c r="P45">
-        <v>0.2951318234086634</v>
+        <v>0.23119287133565269</v>
       </c>
       <c r="Q45">
-        <v>0.31696271150964378</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31582560579998481</v>
+      </c>
+      <c r="R45">
+        <v>0.23651049187373671</v>
+      </c>
+      <c r="S45">
+        <v>0.31857130582661292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>59.073001990560023</v>
+        <v>58.939607772334973</v>
       </c>
       <c r="E46">
-        <v>42.532561433203213</v>
+        <v>42.436517596081167</v>
       </c>
       <c r="F46">
-        <v>29.517597634643032</v>
+        <v>29.450943211680329</v>
       </c>
       <c r="G46">
-        <v>118.4624734194721</v>
+        <v>79.787298227213739</v>
       </c>
       <c r="H46">
-        <v>46.929575505113263</v>
+        <v>28.263671583839969</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -2935,45 +3221,51 @@
         <v>0.3</v>
       </c>
       <c r="M46">
-        <v>0.52131295209185735</v>
+        <v>0.52734771369118516</v>
       </c>
       <c r="N46">
-        <v>2.7997908240894098</v>
+        <v>1.833248877875475</v>
       </c>
       <c r="O46">
-        <v>2.539231035253132</v>
+        <v>2.5449779133142938</v>
       </c>
       <c r="P46">
-        <v>0.2951318234086634</v>
+        <v>0.23119287133565269</v>
       </c>
       <c r="Q46">
-        <v>0.31696271150964378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31582560579998481</v>
+      </c>
+      <c r="R46">
+        <v>0.23651049187373671</v>
+      </c>
+      <c r="S46">
+        <v>0.31857130582661292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>60.616656149042228</v>
+        <v>60.491424296583183</v>
       </c>
       <c r="E47">
-        <v>43.643992427310401</v>
+        <v>43.553825493539897</v>
       </c>
       <c r="F47">
-        <v>30.288930744553419</v>
+        <v>30.226354892516682</v>
       </c>
       <c r="G47">
-        <v>118.69205806099301</v>
+        <v>80.315158334501433</v>
       </c>
       <c r="H47">
-        <v>46.9899295195438</v>
+        <v>28.400483292112138</v>
       </c>
       <c r="I47">
         <v>10</v>
@@ -2988,45 +3280,51 @@
         <v>0.3</v>
       </c>
       <c r="M47">
-        <v>0.52152515692786794</v>
+        <v>0.52763621526758342</v>
       </c>
       <c r="N47">
-        <v>2.7332749462979842</v>
+        <v>1.79720750322545</v>
       </c>
       <c r="O47">
-        <v>2.474567380146885</v>
+        <v>2.4796903320471602</v>
       </c>
       <c r="P47">
-        <v>0.29823367213557822</v>
+        <v>0.23332658292389419</v>
       </c>
       <c r="Q47">
-        <v>0.31824478662720979</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31707260687079108</v>
+      </c>
+      <c r="R47">
+        <v>0.23860353961368971</v>
+      </c>
+      <c r="S47">
+        <v>0.31978520366492208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>62.187899379591968</v>
+        <v>62.071319406848517</v>
       </c>
       <c r="E48">
-        <v>44.775287553306221</v>
+        <v>44.691349972930936</v>
       </c>
       <c r="F48">
-        <v>31.07404956199451</v>
+        <v>31.015796881214069</v>
       </c>
       <c r="G48">
-        <v>118.92780032253449</v>
+        <v>80.838177211228469</v>
       </c>
       <c r="H48">
-        <v>47.052000777818073</v>
+        <v>28.533959850191181</v>
       </c>
       <c r="I48">
         <v>10</v>
@@ -3041,45 +3339,51 @@
         <v>0.3</v>
       </c>
       <c r="M48">
-        <v>0.52174251932526505</v>
+        <v>0.52793161852252857</v>
       </c>
       <c r="N48">
-        <v>2.6690047864009649</v>
+        <v>1.762039829450641</v>
       </c>
       <c r="O48">
-        <v>2.4120448109109969</v>
+        <v>2.4165750210144572</v>
       </c>
       <c r="P48">
-        <v>0.30109610109210211</v>
+        <v>0.2353062201082867</v>
       </c>
       <c r="Q48">
-        <v>0.31932200476969269</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31811326146226082</v>
+      </c>
+      <c r="R48">
+        <v>0.24054376833717231</v>
+      </c>
+      <c r="S48">
+        <v>0.32079404723318589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B49">
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>63.787840732247993</v>
+        <v>63.680393745258478</v>
       </c>
       <c r="E49">
-        <v>45.92724532721855</v>
+        <v>45.849883496586102</v>
       </c>
       <c r="F49">
-        <v>31.873508257089679</v>
+        <v>31.819819146630749</v>
       </c>
       <c r="G49">
-        <v>119.16996704243761</v>
+        <v>81.356941244615911</v>
       </c>
       <c r="H49">
-        <v>47.115867699615677</v>
+        <v>28.664268841652209</v>
       </c>
       <c r="I49">
         <v>10</v>
@@ -3094,1294 +3398,2153 @@
         <v>0.3</v>
       </c>
       <c r="M49">
-        <v>0.52196523933676098</v>
+        <v>0.52823418393276567</v>
       </c>
       <c r="N49">
-        <v>2.6068578718637729</v>
+        <v>1.7277093248887161</v>
       </c>
       <c r="O49">
-        <v>2.351545345916803</v>
+        <v>2.3555130736164571</v>
       </c>
       <c r="P49">
-        <v>0.30372978986510951</v>
+        <v>0.23713658874467411</v>
       </c>
       <c r="Q49">
-        <v>0.32020255991575147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31895603858486199</v>
+      </c>
+      <c r="R49">
+        <v>0.2423359334282634</v>
+      </c>
+      <c r="S49">
+        <v>0.3216062366606578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>68.570527268831</v>
+        <v>63.888243018283802</v>
       </c>
       <c r="E50">
-        <v>49.370779633558321</v>
+        <v>45.999534973164337</v>
       </c>
       <c r="F50">
-        <v>34.263321065689468</v>
+        <v>31.92367727137605</v>
       </c>
       <c r="G50">
-        <v>125.82115678227601</v>
+        <v>33.928626802302517</v>
       </c>
       <c r="H50">
-        <v>48.213205548500149</v>
+        <v>71.651157281978769</v>
       </c>
       <c r="I50">
         <v>10</v>
       </c>
       <c r="J50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M50">
-        <v>0.53205676622873577</v>
+        <v>0.51347246539093006</v>
       </c>
       <c r="N50">
-        <v>2.538034477239381</v>
+        <v>1.6525698484784761</v>
       </c>
       <c r="O50">
-        <v>2.187528752869647</v>
+        <v>2.3478498220255082</v>
       </c>
       <c r="P50">
-        <v>0.30433898054297098</v>
+        <v>0.35739236993638152</v>
       </c>
       <c r="Q50">
-        <v>0.30707401556350661</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32677033211370082</v>
+      </c>
+      <c r="R50">
+        <v>0.35982734169022912</v>
+      </c>
+      <c r="S50">
+        <v>0.32771464537327261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>30</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>70.462746617623168</v>
+        <v>65.414191245523043</v>
       </c>
       <c r="E51">
-        <v>50.733177564688681</v>
+        <v>47.098217696776587</v>
       </c>
       <c r="F51">
-        <v>35.208825229893939</v>
+        <v>32.686163081562952</v>
       </c>
       <c r="G51">
-        <v>126.2200744429818</v>
+        <v>34.103160891156399</v>
       </c>
       <c r="H51">
-        <v>48.308399486127691</v>
+        <v>71.96546196056984</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M51">
-        <v>0.53248551770066987</v>
+        <v>0.51358398306536812</v>
       </c>
       <c r="N51">
-        <v>2.4768900207114388</v>
+        <v>1.621492535979119</v>
       </c>
       <c r="O51">
-        <v>2.128784459879173</v>
+        <v>2.2930804026452898</v>
       </c>
       <c r="P51">
-        <v>0.30615512238030201</v>
+        <v>0.35715040944124282</v>
       </c>
       <c r="Q51">
-        <v>0.30689648650116802</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32779307128476498</v>
+      </c>
+      <c r="R51">
+        <v>0.35956595704468253</v>
+      </c>
+      <c r="S51">
+        <v>0.32872607153999112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D52">
-        <v>68.570527268831</v>
+        <v>63.888243018283802</v>
       </c>
       <c r="E52">
-        <v>49.370779633558321</v>
+        <v>45.999534973164337</v>
       </c>
       <c r="F52">
-        <v>34.263321065689468</v>
+        <v>31.92367727137605</v>
       </c>
       <c r="G52">
-        <v>125.82115678227601</v>
+        <v>33.928626802302517</v>
       </c>
       <c r="H52">
-        <v>48.213205548500149</v>
+        <v>71.651157281978769</v>
       </c>
       <c r="I52">
         <v>10</v>
       </c>
       <c r="J52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M52">
-        <v>0.53205676622873577</v>
+        <v>0.51347246539093006</v>
       </c>
       <c r="N52">
-        <v>2.538034477239381</v>
+        <v>1.6525698484784761</v>
       </c>
       <c r="O52">
-        <v>2.187528752869647</v>
+        <v>2.3478498220255082</v>
       </c>
       <c r="P52">
-        <v>0.30433898054297098</v>
+        <v>0.35739236993638152</v>
       </c>
       <c r="Q52">
-        <v>0.30707401556350661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32677033211370082</v>
+      </c>
+      <c r="R52">
+        <v>0.35982734169022912</v>
+      </c>
+      <c r="S52">
+        <v>0.32771464537327261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>66.723085809212307</v>
+        <v>62.384762842299097</v>
       </c>
       <c r="E53">
-        <v>48.040621782632861</v>
+        <v>44.917029246455357</v>
       </c>
       <c r="F53">
-        <v>33.340191517147197</v>
+        <v>31.172418297040011</v>
       </c>
       <c r="G53">
-        <v>125.4348126943699</v>
+        <v>33.751478902122408</v>
       </c>
       <c r="H53">
-        <v>48.121172361128643</v>
+        <v>71.329853190340373</v>
       </c>
       <c r="I53">
         <v>10</v>
       </c>
       <c r="J53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M53">
-        <v>0.53164060959584714</v>
+        <v>0.5133631778653317</v>
       </c>
       <c r="N53">
-        <v>2.60113846580423</v>
+        <v>1.684407013906509</v>
       </c>
       <c r="O53">
-        <v>2.2480974640308049</v>
+        <v>2.4044332809147848</v>
       </c>
       <c r="P53">
-        <v>0.30229789983092459</v>
+        <v>0.35754604374847571</v>
       </c>
       <c r="Q53">
-        <v>0.30705671214913499</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32558024105751848</v>
+      </c>
+      <c r="R53">
+        <v>0.3600010078555459</v>
+      </c>
+      <c r="S53">
+        <v>0.32653628928737721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D54">
-        <v>63.154436558463011</v>
+        <v>59.442271628607038</v>
       </c>
       <c r="E54">
-        <v>45.471194322093368</v>
+        <v>42.798435572597057</v>
       </c>
       <c r="F54">
-        <v>31.55700885953279</v>
+        <v>29.702114287382361</v>
       </c>
       <c r="G54">
-        <v>124.69743125362081</v>
+        <v>33.388559317286692</v>
       </c>
       <c r="H54">
-        <v>47.945948185147991</v>
+        <v>70.664698939554057</v>
       </c>
       <c r="I54">
         <v>10</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M54">
-        <v>0.53084387124872967</v>
+        <v>0.51315100538703506</v>
       </c>
       <c r="N54">
-        <v>2.7336698551486589</v>
+        <v>1.7504926276532871</v>
       </c>
       <c r="O54">
-        <v>2.3751300490368989</v>
+        <v>2.5234567234777652</v>
       </c>
       <c r="P54">
-        <v>0.29750232122338222</v>
+        <v>0.35757885952923357</v>
       </c>
       <c r="Q54">
-        <v>0.30640925482616688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32266892010590897</v>
+      </c>
+      <c r="R54">
+        <v>0.36007560853641601</v>
+      </c>
+      <c r="S54">
+        <v>0.32364979831693519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B55">
         <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>61.429479151733332</v>
+        <v>58.001875554335442</v>
       </c>
       <c r="E55">
-        <v>44.229224989248003</v>
+        <v>41.761350399121518</v>
       </c>
       <c r="F55">
-        <v>30.695082142538109</v>
+        <v>28.98237717699033</v>
       </c>
       <c r="G55">
-        <v>124.3452849054958</v>
+        <v>33.202380666749718</v>
       </c>
       <c r="H55">
-        <v>47.862464338082169</v>
+        <v>70.32003593325841</v>
       </c>
       <c r="I55">
         <v>10</v>
       </c>
       <c r="J55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M55">
-        <v>0.53046226682753017</v>
+        <v>0.51304798467728085</v>
       </c>
       <c r="N55">
-        <v>2.8033405397792448</v>
+        <v>1.784811536017135</v>
       </c>
       <c r="O55">
-        <v>2.4418243825491972</v>
+        <v>2.58612326871192</v>
       </c>
       <c r="P55">
-        <v>0.29472660246458282</v>
+        <v>0.35745276485958261</v>
       </c>
       <c r="Q55">
-        <v>0.30576337948295929</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32093164492367532</v>
+      </c>
+      <c r="R55">
+        <v>0.3599713575582153</v>
+      </c>
+      <c r="S55">
+        <v>0.32192566964963731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B56">
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D56">
-        <v>59.741782206948571</v>
+        <v>56.581173663985822</v>
       </c>
       <c r="E56">
-        <v>43.014083189002967</v>
+        <v>40.738445038069777</v>
       </c>
       <c r="F56">
-        <v>29.851773733168059</v>
+        <v>28.27248085642043</v>
       </c>
       <c r="G56">
-        <v>124.0034877936392</v>
+        <v>33.012772728662121</v>
       </c>
       <c r="H56">
-        <v>47.781553711995578</v>
+        <v>69.966744649667845</v>
       </c>
       <c r="I56">
         <v>10</v>
       </c>
       <c r="J56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M56">
-        <v>0.53009120687357958</v>
+        <v>0.51294692221474292</v>
       </c>
       <c r="N56">
-        <v>2.8754589361020839</v>
+        <v>1.820031482377626</v>
       </c>
       <c r="O56">
-        <v>2.5108055779185219</v>
+        <v>2.6510584755769342</v>
       </c>
       <c r="P56">
-        <v>0.29168335760040942</v>
+        <v>0.35722788843457381</v>
       </c>
       <c r="Q56">
-        <v>0.30489111892611392</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31899481570962812</v>
+      </c>
+      <c r="R56">
+        <v>0.35976899550864272</v>
+      </c>
+      <c r="S56">
+        <v>0.3200025122659077</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>61.429479151733332</v>
+        <v>58.001875554335442</v>
       </c>
       <c r="E57">
-        <v>44.229224989248003</v>
+        <v>41.761350399121518</v>
       </c>
       <c r="F57">
-        <v>30.695082142538109</v>
+        <v>28.98237717699033</v>
       </c>
       <c r="G57">
-        <v>124.3452849054958</v>
+        <v>33.202380666749718</v>
       </c>
       <c r="H57">
-        <v>47.862464338082169</v>
+        <v>70.32003593325841</v>
       </c>
       <c r="I57">
         <v>10</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M57">
-        <v>0.53046226682753017</v>
+        <v>0.51304798467728085</v>
       </c>
       <c r="N57">
-        <v>2.8033405397792448</v>
+        <v>1.784811536017135</v>
       </c>
       <c r="O57">
-        <v>2.4418243825491972</v>
+        <v>2.58612326871192</v>
       </c>
       <c r="P57">
-        <v>0.29472660246458282</v>
+        <v>0.35745276485958261</v>
       </c>
       <c r="Q57">
-        <v>0.30576337948295929</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32093164492367532</v>
+      </c>
+      <c r="R57">
+        <v>0.3599713575582153</v>
+      </c>
+      <c r="S57">
+        <v>0.32192566964963731</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D58">
-        <v>61.429479151733332</v>
+        <v>58.001875554335442</v>
       </c>
       <c r="E58">
-        <v>44.229224989248003</v>
+        <v>41.761350399121518</v>
       </c>
       <c r="F58">
-        <v>30.695082142538109</v>
+        <v>28.98237717699033</v>
       </c>
       <c r="G58">
-        <v>124.3452849054958</v>
+        <v>33.202380666749718</v>
       </c>
       <c r="H58">
-        <v>47.862464338082169</v>
+        <v>70.32003593325841</v>
       </c>
       <c r="I58">
         <v>10</v>
       </c>
       <c r="J58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M58">
-        <v>0.53046226682753017</v>
+        <v>0.51304798467728085</v>
       </c>
       <c r="N58">
-        <v>2.8033405397792448</v>
+        <v>1.784811536017135</v>
       </c>
       <c r="O58">
-        <v>2.4418243825491972</v>
+        <v>2.58612326871192</v>
       </c>
       <c r="P58">
-        <v>0.29472660246458282</v>
+        <v>0.35745276485958261</v>
       </c>
       <c r="Q58">
-        <v>0.30576337948295929</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32093164492367532</v>
+      </c>
+      <c r="R58">
+        <v>0.3599713575582153</v>
+      </c>
+      <c r="S58">
+        <v>0.32192566964963731</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>63.154436558463011</v>
+        <v>59.442271628607038</v>
       </c>
       <c r="E59">
-        <v>45.471194322093368</v>
+        <v>42.798435572597057</v>
       </c>
       <c r="F59">
-        <v>31.55700885953279</v>
+        <v>29.702114287382361</v>
       </c>
       <c r="G59">
-        <v>124.69743125362081</v>
+        <v>33.388559317286692</v>
       </c>
       <c r="H59">
-        <v>47.945948185147991</v>
+        <v>70.664698939554057</v>
       </c>
       <c r="I59">
         <v>10</v>
       </c>
       <c r="J59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M59">
-        <v>0.53084387124872967</v>
+        <v>0.51315100538703506</v>
       </c>
       <c r="N59">
-        <v>2.7336698551486589</v>
+        <v>1.7504926276532871</v>
       </c>
       <c r="O59">
-        <v>2.3751300490368989</v>
+        <v>2.5234567234777652</v>
       </c>
       <c r="P59">
-        <v>0.29750232122338222</v>
+        <v>0.35757885952923357</v>
       </c>
       <c r="Q59">
-        <v>0.30640925482616688</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32266892010590897</v>
+      </c>
+      <c r="R59">
+        <v>0.36007560853641601</v>
+      </c>
+      <c r="S59">
+        <v>0.32364979831693519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>64.918366246852145</v>
+        <v>60.903008519827928</v>
       </c>
       <c r="E60">
-        <v>46.741223697733538</v>
+        <v>43.850166134276108</v>
       </c>
       <c r="F60">
-        <v>32.438409246227067</v>
+        <v>30.432015297187611</v>
       </c>
       <c r="G60">
-        <v>125.0604285515934</v>
+        <v>33.571523106736052</v>
       </c>
       <c r="H60">
-        <v>48.032137099440767</v>
+        <v>71.001166467899367</v>
       </c>
       <c r="I60">
         <v>10</v>
       </c>
       <c r="J60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M60">
-        <v>0.53123648693348835</v>
+        <v>0.51325604768208211</v>
       </c>
       <c r="N60">
-        <v>2.6663111790714131</v>
+        <v>1.717036516194272</v>
       </c>
       <c r="O60">
-        <v>2.3105941919367599</v>
+        <v>2.4629325159062572</v>
       </c>
       <c r="P60">
-        <v>0.30002241528958712</v>
+        <v>0.35760905195932119</v>
       </c>
       <c r="Q60">
-        <v>0.30683763730518587</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32421567242199167</v>
+      </c>
+      <c r="R60">
+        <v>0.36008460019274441</v>
+      </c>
+      <c r="S60">
+        <v>0.32518390069663528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B61">
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>66.723085809212307</v>
+        <v>62.384762842299097</v>
       </c>
       <c r="E61">
-        <v>48.040621782632861</v>
+        <v>44.917029246455357</v>
       </c>
       <c r="F61">
-        <v>33.340191517147197</v>
+        <v>31.172418297040011</v>
       </c>
       <c r="G61">
-        <v>125.4348126943699</v>
+        <v>33.751478902122408</v>
       </c>
       <c r="H61">
-        <v>48.121172361128643</v>
+        <v>71.329853190340373</v>
       </c>
       <c r="I61">
         <v>10</v>
       </c>
       <c r="J61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M61">
-        <v>0.53164060959584714</v>
+        <v>0.5133631778653317</v>
       </c>
       <c r="N61">
-        <v>2.60113846580423</v>
+        <v>1.684407013906509</v>
       </c>
       <c r="O61">
-        <v>2.2480974640308049</v>
+        <v>2.4044332809147848</v>
       </c>
       <c r="P61">
-        <v>0.30229789983092459</v>
+        <v>0.35754604374847571</v>
       </c>
       <c r="Q61">
-        <v>0.30705671214913499</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.32558024105751848</v>
+      </c>
+      <c r="R61">
+        <v>0.3600010078555459</v>
+      </c>
+      <c r="S61">
+        <v>0.32653628928737721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B62">
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>62.795303826198541</v>
+        <v>65.417649009978234</v>
       </c>
       <c r="E62">
-        <v>45.212618754862952</v>
+        <v>47.100707287184328</v>
       </c>
       <c r="F62">
-        <v>31.37755741587489</v>
+        <v>32.687890857305931</v>
       </c>
       <c r="G62">
-        <v>48.010533733957637</v>
+        <v>79.960210691523187</v>
       </c>
       <c r="H62">
-        <v>109.45643709907981</v>
+        <v>29.242962514675899</v>
       </c>
       <c r="I62">
         <v>10</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L62">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M62">
-        <v>0.50605481461525192</v>
+        <v>0.52219352782079764</v>
       </c>
       <c r="N62">
-        <v>2.5076233609581058</v>
+        <v>1.6693228029265039</v>
       </c>
       <c r="O62">
-        <v>2.388713659466668</v>
+        <v>2.2929591978629551</v>
       </c>
       <c r="P62">
-        <v>0.39338422835282361</v>
+        <v>0.2376047021152109</v>
       </c>
       <c r="Q62">
-        <v>0.33283078183203041</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.319130734674691</v>
+      </c>
+      <c r="R62">
+        <v>0.24136440147078039</v>
+      </c>
+      <c r="S62">
+        <v>0.32089401057272721</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B63">
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D63">
-        <v>64.17495964201855</v>
+        <v>67.078556952777859</v>
       </c>
       <c r="E63">
-        <v>46.205970942253352</v>
+        <v>48.296561006000061</v>
       </c>
       <c r="F63">
-        <v>32.066943833923823</v>
+        <v>33.517813338164054</v>
       </c>
       <c r="G63">
-        <v>48.025838474226212</v>
+        <v>80.452733178919132</v>
       </c>
       <c r="H63">
-        <v>109.4805602195615</v>
+        <v>29.38095295657978</v>
       </c>
       <c r="I63">
         <v>10</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L63">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M63">
-        <v>0.50608216700222231</v>
+        <v>0.52242760720006809</v>
       </c>
       <c r="N63">
-        <v>2.4543279742190971</v>
+        <v>1.637388923151998</v>
       </c>
       <c r="O63">
-        <v>2.3373602544782521</v>
+        <v>2.236184062599877</v>
       </c>
       <c r="P63">
-        <v>0.39441736192231369</v>
+        <v>0.2391667926182533</v>
       </c>
       <c r="Q63">
-        <v>0.3344907450608553</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31965980826143903</v>
+      </c>
+      <c r="R63">
+        <v>0.24289903578881311</v>
+      </c>
+      <c r="S63">
+        <v>0.32140333230003237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B64">
         <v>29</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>62.795303826198541</v>
+        <v>65.417649009978234</v>
       </c>
       <c r="E64">
-        <v>45.212618754862952</v>
+        <v>47.100707287184328</v>
       </c>
       <c r="F64">
-        <v>31.37755741587489</v>
+        <v>32.687890857305931</v>
       </c>
       <c r="G64">
-        <v>48.010533733957637</v>
+        <v>79.960210691523187</v>
       </c>
       <c r="H64">
-        <v>109.45643709907981</v>
+        <v>29.242962514675899</v>
       </c>
       <c r="I64">
         <v>10</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L64">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M64">
-        <v>0.50605481461525192</v>
+        <v>0.52219352782079764</v>
       </c>
       <c r="N64">
-        <v>2.5076233609581058</v>
+        <v>1.6693228029265039</v>
       </c>
       <c r="O64">
-        <v>2.388713659466668</v>
+        <v>2.2929591978629551</v>
       </c>
       <c r="P64">
-        <v>0.39338422835282361</v>
+        <v>0.2376047021152109</v>
       </c>
       <c r="Q64">
-        <v>0.33283078183203041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.319130734674691</v>
+      </c>
+      <c r="R64">
+        <v>0.24136440147078039</v>
+      </c>
+      <c r="S64">
+        <v>0.32089401057272721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>61.427572295570783</v>
+        <v>63.787840732247993</v>
       </c>
       <c r="E65">
-        <v>44.227852052810967</v>
+        <v>45.92724532721855</v>
       </c>
       <c r="F65">
-        <v>30.69412932465081</v>
+        <v>31.873508257089679</v>
       </c>
       <c r="G65">
-        <v>47.99547335066908</v>
+        <v>79.464560586965007</v>
       </c>
       <c r="H65">
-        <v>109.4327566661816</v>
+        <v>29.102484225138031</v>
       </c>
       <c r="I65">
         <v>10</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L65">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M65">
-        <v>0.50602776313011433</v>
+        <v>0.52196523933676098</v>
       </c>
       <c r="N65">
-        <v>2.5628268240742762</v>
+        <v>1.702002192985612</v>
       </c>
       <c r="O65">
-        <v>2.4419001825148761</v>
+        <v>2.351545345916803</v>
       </c>
       <c r="P65">
-        <v>0.39223509156839692</v>
+        <v>0.23590538228895169</v>
       </c>
       <c r="Q65">
-        <v>0.33103199706833281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31841877529244378</v>
+      </c>
+      <c r="R65">
+        <v>0.2396933698073295</v>
+      </c>
+      <c r="S65">
+        <v>0.32020255991575147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B66">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D66">
-        <v>58.72714627397594</v>
+        <v>60.616656149042228</v>
       </c>
       <c r="E66">
-        <v>42.283545317262679</v>
+        <v>43.643992427310401</v>
       </c>
       <c r="F66">
-        <v>29.344780450180291</v>
+        <v>30.288930744553419</v>
       </c>
       <c r="G66">
-        <v>47.966060543759433</v>
+        <v>78.461595105161024</v>
       </c>
       <c r="H66">
-        <v>109.38667506904341</v>
+        <v>28.813367973353781</v>
       </c>
       <c r="I66">
         <v>10</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L66">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M66">
-        <v>0.50597453978812246</v>
+        <v>0.52152515692786794</v>
       </c>
       <c r="N66">
-        <v>2.6793867163017819</v>
+        <v>1.769727495603695</v>
       </c>
       <c r="O66">
-        <v>2.5541850663101311</v>
+        <v>2.474567380146885</v>
       </c>
       <c r="P66">
-        <v>0.38956349472274682</v>
+        <v>0.23207847855896099</v>
       </c>
       <c r="Q66">
-        <v>0.32698781275712452</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31641754615901552</v>
+      </c>
+      <c r="R66">
+        <v>0.23592567669314679</v>
+      </c>
+      <c r="S66">
+        <v>0.31824478662720979</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B67">
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>57.394098326113337</v>
+        <v>59.073001990560023</v>
       </c>
       <c r="E67">
-        <v>41.323750794801597</v>
+        <v>42.532561433203213</v>
       </c>
       <c r="F67">
-        <v>28.678683051592309</v>
+        <v>29.517597634643032</v>
       </c>
       <c r="G67">
-        <v>47.951696072412403</v>
+        <v>77.953120790647603</v>
       </c>
       <c r="H67">
-        <v>109.3642505253079</v>
+        <v>28.66436904314094</v>
       </c>
       <c r="I67">
         <v>10</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L67">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M67">
-        <v>0.5059483567878873</v>
+        <v>0.52131295209185735</v>
       </c>
       <c r="N67">
-        <v>2.7409777518212919</v>
+        <v>1.8048429272449411</v>
       </c>
       <c r="O67">
-        <v>2.6135091302889681</v>
+        <v>2.539231035253132</v>
       </c>
       <c r="P67">
-        <v>0.38802713982643561</v>
+        <v>0.22994196049864471</v>
       </c>
       <c r="Q67">
-        <v>0.32472586731708869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31511243212738438</v>
+      </c>
+      <c r="R67">
+        <v>0.2338201551261215</v>
+      </c>
+      <c r="S67">
+        <v>0.31696271150964378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B68">
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D68">
-        <v>56.072267379004629</v>
+        <v>57.555883754216318</v>
       </c>
       <c r="E68">
-        <v>40.37203251288333</v>
+        <v>41.440236303035753</v>
       </c>
       <c r="F68">
-        <v>28.01819056394103</v>
+        <v>28.759523994306811</v>
       </c>
       <c r="G68">
-        <v>47.937551845002439</v>
+        <v>77.439196475647165</v>
       </c>
       <c r="H68">
-        <v>109.3422218737924</v>
+        <v>28.512158888570919</v>
       </c>
       <c r="I68">
         <v>10</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L68">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M68">
-        <v>0.50592245239155786</v>
+        <v>0.52110571487161983</v>
       </c>
       <c r="N68">
-        <v>2.8049476340185548</v>
+        <v>1.8408431676015491</v>
       </c>
       <c r="O68">
-        <v>2.675119216886976</v>
+        <v>2.6061627450731581</v>
       </c>
       <c r="P68">
-        <v>0.38634689668466637</v>
+        <v>0.2276503089427093</v>
       </c>
       <c r="Q68">
-        <v>0.32229189547365128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31359263186112418</v>
+      </c>
+      <c r="R68">
+        <v>0.23156048040042551</v>
+      </c>
+      <c r="S68">
+        <v>0.31546689122119281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D69">
-        <v>57.394098326113337</v>
+        <v>59.073001990560023</v>
       </c>
       <c r="E69">
-        <v>41.323750794801597</v>
+        <v>42.532561433203213</v>
       </c>
       <c r="F69">
-        <v>28.678683051592309</v>
+        <v>29.517597634643032</v>
       </c>
       <c r="G69">
-        <v>47.951696072412403</v>
+        <v>77.953120790647603</v>
       </c>
       <c r="H69">
-        <v>109.3642505253079</v>
+        <v>28.66436904314094</v>
       </c>
       <c r="I69">
         <v>10</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L69">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M69">
-        <v>0.5059483567878873</v>
+        <v>0.52131295209185735</v>
       </c>
       <c r="N69">
-        <v>2.7409777518212919</v>
+        <v>1.8048429272449411</v>
       </c>
       <c r="O69">
-        <v>2.6135091302889681</v>
+        <v>2.539231035253132</v>
       </c>
       <c r="P69">
-        <v>0.38802713982643561</v>
+        <v>0.22994196049864471</v>
       </c>
       <c r="Q69">
-        <v>0.32472586731708869</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31511243212738438</v>
+      </c>
+      <c r="R69">
+        <v>0.2338201551261215</v>
+      </c>
+      <c r="S69">
+        <v>0.31696271150964378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D70">
-        <v>57.394098326113337</v>
+        <v>59.073001990560023</v>
       </c>
       <c r="E70">
-        <v>41.323750794801597</v>
+        <v>42.532561433203213</v>
       </c>
       <c r="F70">
-        <v>28.678683051592309</v>
+        <v>29.517597634643032</v>
       </c>
       <c r="G70">
-        <v>47.951696072412403</v>
+        <v>77.953120790647603</v>
       </c>
       <c r="H70">
-        <v>109.3642505253079</v>
+        <v>28.66436904314094</v>
       </c>
       <c r="I70">
         <v>10</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L70">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M70">
-        <v>0.5059483567878873</v>
+        <v>0.52131295209185735</v>
       </c>
       <c r="N70">
-        <v>2.7409777518212919</v>
+        <v>1.8048429272449411</v>
       </c>
       <c r="O70">
-        <v>2.6135091302889681</v>
+        <v>2.539231035253132</v>
       </c>
       <c r="P70">
-        <v>0.38802713982643561</v>
+        <v>0.22994196049864471</v>
       </c>
       <c r="Q70">
-        <v>0.32472586731708869</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31511243212738438</v>
+      </c>
+      <c r="R70">
+        <v>0.2338201551261215</v>
+      </c>
+      <c r="S70">
+        <v>0.31696271150964378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B71">
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71">
-        <v>58.72714627397594</v>
+        <v>60.616656149042228</v>
       </c>
       <c r="E71">
-        <v>42.283545317262679</v>
+        <v>43.643992427310401</v>
       </c>
       <c r="F71">
-        <v>29.344780450180291</v>
+        <v>30.288930744553419</v>
       </c>
       <c r="G71">
-        <v>47.966060543759433</v>
+        <v>78.461595105161024</v>
       </c>
       <c r="H71">
-        <v>109.38667506904341</v>
+        <v>28.813367973353781</v>
       </c>
       <c r="I71">
         <v>10</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L71">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M71">
-        <v>0.50597453978812246</v>
+        <v>0.52152515692786794</v>
       </c>
       <c r="N71">
-        <v>2.6793867163017819</v>
+        <v>1.769727495603695</v>
       </c>
       <c r="O71">
-        <v>2.5541850663101311</v>
+        <v>2.474567380146885</v>
       </c>
       <c r="P71">
-        <v>0.38956349472274682</v>
+        <v>0.23207847855896099</v>
       </c>
       <c r="Q71">
-        <v>0.32698781275712452</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31641754615901552</v>
+      </c>
+      <c r="R71">
+        <v>0.23592567669314679</v>
+      </c>
+      <c r="S71">
+        <v>0.31824478662720979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B72">
         <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>60.071579632223923</v>
+        <v>62.187899379591968</v>
       </c>
       <c r="E72">
-        <v>43.25153733520122</v>
+        <v>44.775287553306221</v>
       </c>
       <c r="F72">
-        <v>30.016566910629649</v>
+        <v>31.07404956199451</v>
       </c>
       <c r="G72">
-        <v>47.980650994985048</v>
+        <v>78.965213809159778</v>
       </c>
       <c r="H72">
-        <v>109.4095066190325</v>
+        <v>28.95934527518525</v>
       </c>
       <c r="I72">
         <v>10</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L72">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M72">
-        <v>0.50600100673741177</v>
+        <v>0.52174251932526505</v>
       </c>
       <c r="N72">
-        <v>2.6200435976148282</v>
+        <v>1.7354591513950111</v>
       </c>
       <c r="O72">
-        <v>2.4970210691702239</v>
+        <v>2.4120448109109969</v>
       </c>
       <c r="P72">
-        <v>0.39096374245575077</v>
+        <v>0.23406475200470939</v>
       </c>
       <c r="Q72">
-        <v>0.32908699495948213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.31751691336688243</v>
+      </c>
+      <c r="R72">
+        <v>0.23788189378006111</v>
+      </c>
+      <c r="S72">
+        <v>0.31932200476969269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B73">
         <v>28</v>
       </c>
       <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73">
+        <v>63.787840732247993</v>
+      </c>
+      <c r="E73">
+        <v>45.92724532721855</v>
+      </c>
+      <c r="F73">
+        <v>31.873508257089679</v>
+      </c>
+      <c r="G73">
+        <v>79.464560586965007</v>
+      </c>
+      <c r="H73">
+        <v>29.102484225138031</v>
+      </c>
+      <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+      <c r="L73">
+        <v>0.3</v>
+      </c>
+      <c r="M73">
+        <v>0.52196523933676098</v>
+      </c>
+      <c r="N73">
+        <v>1.702002192985612</v>
+      </c>
+      <c r="O73">
+        <v>2.351545345916803</v>
+      </c>
+      <c r="P73">
+        <v>0.23590538228895169</v>
+      </c>
+      <c r="Q73">
+        <v>0.31841877529244378</v>
+      </c>
+      <c r="R73">
+        <v>0.2396933698073295</v>
+      </c>
+      <c r="S73">
+        <v>0.32020255991575147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74">
         <v>29</v>
       </c>
-      <c r="D73">
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>62.795303826198541</v>
+      </c>
+      <c r="E74">
+        <v>45.212618754862952</v>
+      </c>
+      <c r="F74">
+        <v>31.37755741587489</v>
+      </c>
+      <c r="G74">
+        <v>31.126583881767971</v>
+      </c>
+      <c r="H74">
+        <v>69.270149030253066</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0.7</v>
+      </c>
+      <c r="M74">
+        <v>0.50605481461525192</v>
+      </c>
+      <c r="N74">
+        <v>1.598793648485143</v>
+      </c>
+      <c r="O74">
+        <v>2.388713659466668</v>
+      </c>
+      <c r="P74">
+        <v>0.34901889095129818</v>
+      </c>
+      <c r="Q74">
+        <v>0.3324577017260249</v>
+      </c>
+      <c r="R74">
+        <v>0.35001952860436769</v>
+      </c>
+      <c r="S74">
+        <v>0.33283078183203041</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>64.17495964201855</v>
+      </c>
+      <c r="E75">
+        <v>46.205970942253352</v>
+      </c>
+      <c r="F75">
+        <v>32.066943833923823</v>
+      </c>
+      <c r="G75">
+        <v>31.265030058406069</v>
+      </c>
+      <c r="H75">
+        <v>69.564109920731795</v>
+      </c>
+      <c r="I75">
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0.7</v>
+      </c>
+      <c r="M75">
+        <v>0.50608216700222231</v>
+      </c>
+      <c r="N75">
+        <v>1.5711601618697399</v>
+      </c>
+      <c r="O75">
+        <v>2.3373602544782521</v>
+      </c>
+      <c r="P75">
+        <v>0.34930921532380782</v>
+      </c>
+      <c r="Q75">
+        <v>0.33412282257112058</v>
+      </c>
+      <c r="R75">
+        <v>0.35030008732446888</v>
+      </c>
+      <c r="S75">
+        <v>0.3344907450608553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76">
+        <v>62.795303826198541</v>
+      </c>
+      <c r="E76">
+        <v>45.212618754862952</v>
+      </c>
+      <c r="F76">
+        <v>31.37755741587489</v>
+      </c>
+      <c r="G76">
+        <v>31.126583881767971</v>
+      </c>
+      <c r="H76">
+        <v>69.270149030253066</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0.7</v>
+      </c>
+      <c r="M76">
+        <v>0.50605481461525192</v>
+      </c>
+      <c r="N76">
+        <v>1.598793648485143</v>
+      </c>
+      <c r="O76">
+        <v>2.388713659466668</v>
+      </c>
+      <c r="P76">
+        <v>0.34901889095129818</v>
+      </c>
+      <c r="Q76">
+        <v>0.3324577017260249</v>
+      </c>
+      <c r="R76">
+        <v>0.35001952860436769</v>
+      </c>
+      <c r="S76">
+        <v>0.33283078183203041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77">
         <v>61.427572295570783</v>
       </c>
-      <c r="E73">
+      <c r="E77">
         <v>44.227852052810967</v>
       </c>
-      <c r="F73">
+      <c r="F77">
         <v>30.69412932465081</v>
       </c>
-      <c r="G73">
-        <v>47.99547335066908</v>
-      </c>
-      <c r="H73">
-        <v>109.4327566661816</v>
-      </c>
-      <c r="I73">
-        <v>10</v>
-      </c>
-      <c r="J73">
+      <c r="G77">
+        <v>30.98491729465449</v>
+      </c>
+      <c r="H77">
+        <v>68.96875451003072</v>
+      </c>
+      <c r="I77">
+        <v>10</v>
+      </c>
+      <c r="J77">
         <v>0</v>
       </c>
-      <c r="K73">
+      <c r="K77">
         <v>0</v>
       </c>
-      <c r="L73">
+      <c r="L77">
         <v>0.7</v>
       </c>
-      <c r="M73">
+      <c r="M77">
         <v>0.50602776313011433</v>
       </c>
-      <c r="N73">
-        <v>2.5628268240742762</v>
-      </c>
-      <c r="O73">
+      <c r="N77">
+        <v>1.6271792628192849</v>
+      </c>
+      <c r="O77">
         <v>2.4419001825148761</v>
       </c>
-      <c r="P73">
-        <v>0.39223509156839692</v>
-      </c>
-      <c r="Q73">
+      <c r="P77">
+        <v>0.34866710717611332</v>
+      </c>
+      <c r="Q77">
+        <v>0.33065357079033392</v>
+      </c>
+      <c r="R77">
+        <v>0.3496777871540564</v>
+      </c>
+      <c r="S77">
         <v>0.33103199706833281</v>
       </c>
     </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78">
+        <v>58.72714627397594</v>
+      </c>
+      <c r="E78">
+        <v>42.283545317262679</v>
+      </c>
+      <c r="F78">
+        <v>29.344780450180291</v>
+      </c>
+      <c r="G78">
+        <v>30.691330920290959</v>
+      </c>
+      <c r="H78">
+        <v>68.342346451834686</v>
+      </c>
+      <c r="I78">
+        <v>10</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0.7</v>
+      </c>
+      <c r="M78">
+        <v>0.50597453978812246</v>
+      </c>
+      <c r="N78">
+        <v>1.686335598704392</v>
+      </c>
+      <c r="O78">
+        <v>2.5541850663101311</v>
+      </c>
+      <c r="P78">
+        <v>0.34776935494138977</v>
+      </c>
+      <c r="Q78">
+        <v>0.32659808643799448</v>
+      </c>
+      <c r="R78">
+        <v>0.34880099613710769</v>
+      </c>
+      <c r="S78">
+        <v>0.32698781275712452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79">
+        <v>57.394098326113337</v>
+      </c>
+      <c r="E79">
+        <v>41.323750794801597</v>
+      </c>
+      <c r="F79">
+        <v>28.678683051592309</v>
+      </c>
+      <c r="G79">
+        <v>30.539095245877981</v>
+      </c>
+      <c r="H79">
+        <v>68.016628833287555</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0.7</v>
+      </c>
+      <c r="M79">
+        <v>0.5059483567878873</v>
+      </c>
+      <c r="N79">
+        <v>1.7171752314875961</v>
+      </c>
+      <c r="O79">
+        <v>2.6135091302889681</v>
+      </c>
+      <c r="P79">
+        <v>0.34721810684971061</v>
+      </c>
+      <c r="Q79">
+        <v>0.32433016413190757</v>
+      </c>
+      <c r="R79">
+        <v>0.34826069185276359</v>
+      </c>
+      <c r="S79">
+        <v>0.32472586731708869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>56.072267379004629</v>
+      </c>
+      <c r="E80">
+        <v>40.37203251288333</v>
+      </c>
+      <c r="F80">
+        <v>28.01819056394103</v>
+      </c>
+      <c r="G80">
+        <v>30.38300620667523</v>
+      </c>
+      <c r="H80">
+        <v>67.682066774915228</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0.7</v>
+      </c>
+      <c r="M80">
+        <v>0.50592245239155786</v>
+      </c>
+      <c r="N80">
+        <v>1.748905074923176</v>
+      </c>
+      <c r="O80">
+        <v>2.675119216886976</v>
+      </c>
+      <c r="P80">
+        <v>0.34659481841274209</v>
+      </c>
+      <c r="Q80">
+        <v>0.32188998072041253</v>
+      </c>
+      <c r="R80">
+        <v>0.34764867381812681</v>
+      </c>
+      <c r="S80">
+        <v>0.32229189547365128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>57.394098326113337</v>
+      </c>
+      <c r="E81">
+        <v>41.323750794801597</v>
+      </c>
+      <c r="F81">
+        <v>28.678683051592309</v>
+      </c>
+      <c r="G81">
+        <v>30.539095245877981</v>
+      </c>
+      <c r="H81">
+        <v>68.016628833287555</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0.7</v>
+      </c>
+      <c r="M81">
+        <v>0.5059483567878873</v>
+      </c>
+      <c r="N81">
+        <v>1.7171752314875961</v>
+      </c>
+      <c r="O81">
+        <v>2.6135091302889681</v>
+      </c>
+      <c r="P81">
+        <v>0.34721810684971061</v>
+      </c>
+      <c r="Q81">
+        <v>0.32433016413190757</v>
+      </c>
+      <c r="R81">
+        <v>0.34826069185276359</v>
+      </c>
+      <c r="S81">
+        <v>0.32472586731708869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82">
+        <v>57.394098326113337</v>
+      </c>
+      <c r="E82">
+        <v>41.323750794801597</v>
+      </c>
+      <c r="F82">
+        <v>28.678683051592309</v>
+      </c>
+      <c r="G82">
+        <v>30.539095245877981</v>
+      </c>
+      <c r="H82">
+        <v>68.016628833287555</v>
+      </c>
+      <c r="I82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0.7</v>
+      </c>
+      <c r="M82">
+        <v>0.5059483567878873</v>
+      </c>
+      <c r="N82">
+        <v>1.7171752314875961</v>
+      </c>
+      <c r="O82">
+        <v>2.6135091302889681</v>
+      </c>
+      <c r="P82">
+        <v>0.34721810684971061</v>
+      </c>
+      <c r="Q82">
+        <v>0.32433016413190757</v>
+      </c>
+      <c r="R82">
+        <v>0.34826069185276359</v>
+      </c>
+      <c r="S82">
+        <v>0.32472586731708869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83">
+        <v>26</v>
+      </c>
+      <c r="C83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83">
+        <v>58.72714627397594</v>
+      </c>
+      <c r="E83">
+        <v>42.283545317262679</v>
+      </c>
+      <c r="F83">
+        <v>29.344780450180291</v>
+      </c>
+      <c r="G83">
+        <v>30.691330920290959</v>
+      </c>
+      <c r="H83">
+        <v>68.342346451834686</v>
+      </c>
+      <c r="I83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0.7</v>
+      </c>
+      <c r="M83">
+        <v>0.50597453978812246</v>
+      </c>
+      <c r="N83">
+        <v>1.686335598704392</v>
+      </c>
+      <c r="O83">
+        <v>2.5541850663101311</v>
+      </c>
+      <c r="P83">
+        <v>0.34776935494138977</v>
+      </c>
+      <c r="Q83">
+        <v>0.32659808643799448</v>
+      </c>
+      <c r="R83">
+        <v>0.34880099613710769</v>
+      </c>
+      <c r="S83">
+        <v>0.32698781275712452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>60.071579632223923</v>
+      </c>
+      <c r="E84">
+        <v>43.25153733520122</v>
+      </c>
+      <c r="F84">
+        <v>30.016566910629649</v>
+      </c>
+      <c r="G84">
+        <v>30.839884238609329</v>
+      </c>
+      <c r="H84">
+        <v>68.659601202615278</v>
+      </c>
+      <c r="I84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0.7</v>
+      </c>
+      <c r="M84">
+        <v>0.50600100673741177</v>
+      </c>
+      <c r="N84">
+        <v>1.656348743455559</v>
+      </c>
+      <c r="O84">
+        <v>2.4970210691702239</v>
+      </c>
+      <c r="P84">
+        <v>0.34825144897953508</v>
+      </c>
+      <c r="Q84">
+        <v>0.32870302363725767</v>
+      </c>
+      <c r="R84">
+        <v>0.34927245943305418</v>
+      </c>
+      <c r="S84">
+        <v>0.32908699495948213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85">
+        <v>61.427572295570783</v>
+      </c>
+      <c r="E85">
+        <v>44.227852052810967</v>
+      </c>
+      <c r="F85">
+        <v>30.69412932465081</v>
+      </c>
+      <c r="G85">
+        <v>30.98491729465449</v>
+      </c>
+      <c r="H85">
+        <v>68.96875451003072</v>
+      </c>
+      <c r="I85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0.7</v>
+      </c>
+      <c r="M85">
+        <v>0.50602776313011433</v>
+      </c>
+      <c r="N85">
+        <v>1.6271792628192849</v>
+      </c>
+      <c r="O85">
+        <v>2.4419001825148761</v>
+      </c>
+      <c r="P85">
+        <v>0.34866710717611332</v>
+      </c>
+      <c r="Q85">
+        <v>0.33065357079033392</v>
+      </c>
+      <c r="R85">
+        <v>0.3496777871540564</v>
+      </c>
+      <c r="S85">
+        <v>0.33103199706833281</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:S85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>